--- a/Tickets/Normal Tickets/Ticket 37212 - SugarCRM Data for Snowflake Tableau/Sugar Tables needed for Tableau.xlsx
+++ b/Tickets/Normal Tickets/Ticket 37212 - SugarCRM Data for Snowflake Tableau/Sugar Tables needed for Tableau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://summerclassics-my.sharepoint.com/personal/meaganf_summerclassics_com1/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 37212 - SugarCRM Data for Snowflake Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{2ADC1F5B-EFFD-47A4-916C-E0D1C3A5EFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF231E57-F008-498A-81D4-0F78285EAF88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC12F265-830F-4EB1-8A62-18A317811742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F2E0F6E5-B26F-45CD-B484-4192DACE7B07}"/>
+    <workbookView xWindow="-28920" yWindow="105" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F2E0F6E5-B26F-45CD-B484-4192DACE7B07}"/>
   </bookViews>
   <sheets>
     <sheet name="User Table" sheetId="10" r:id="rId1"/>
@@ -14090,7 +14090,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14100,7 +14100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00609719-B1A5-495E-9595-6B7E346DA09F}">
   <dimension ref="A1:Z401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -40081,8 +40081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01504DAB-6652-4A6C-ABE8-6E82413C33EA}">
   <dimension ref="A1:GI36"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49602,7 +49602,7 @@
   <dimension ref="A1:FK36"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="FC1" sqref="FC1:FC1048576"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tickets/Normal Tickets/Ticket 37212 - SugarCRM Data for Snowflake Tableau/Sugar Tables needed for Tableau.xlsx
+++ b/Tickets/Normal Tickets/Ticket 37212 - SugarCRM Data for Snowflake Tableau/Sugar Tables needed for Tableau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 37212 - SugarCRM Data for Snowflake Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC12F265-830F-4EB1-8A62-18A317811742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D6E8D1-A90A-468B-8493-695F4E04CFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="105" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F2E0F6E5-B26F-45CD-B484-4192DACE7B07}"/>
+    <workbookView xWindow="-28800" yWindow="225" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{F2E0F6E5-B26F-45CD-B484-4192DACE7B07}"/>
   </bookViews>
   <sheets>
     <sheet name="User Table" sheetId="10" r:id="rId1"/>
@@ -37783,11 +37783,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53567C1A-6129-422A-B194-D3EA336E6D33}">
   <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView tabSelected="1" topLeftCell="AH7" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="103.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -40081,8 +40118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01504DAB-6652-4A6C-ABE8-6E82413C33EA}">
   <dimension ref="A1:GI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tickets/Normal Tickets/Ticket 37212 - SugarCRM Data for Snowflake Tableau/Sugar Tables needed for Tableau.xlsx
+++ b/Tickets/Normal Tickets/Ticket 37212 - SugarCRM Data for Snowflake Tableau/Sugar Tables needed for Tableau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 37212 - SugarCRM Data for Snowflake Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D6E8D1-A90A-468B-8493-695F4E04CFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D87853-01D9-4046-8B8B-95518F23BE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="225" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{F2E0F6E5-B26F-45CD-B484-4192DACE7B07}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="3" xr2:uid="{F2E0F6E5-B26F-45CD-B484-4192DACE7B07}"/>
   </bookViews>
   <sheets>
     <sheet name="User Table" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12259" uniqueCount="4536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12271" uniqueCount="4547">
   <si>
     <t>Admin Administrator</t>
   </si>
@@ -13666,6 +13666,39 @@
   </si>
   <si>
     <t>Address City</t>
+  </si>
+  <si>
+    <t>estimates</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>xOppertunites</t>
+  </si>
+  <si>
+    <t>Quotes</t>
+  </si>
+  <si>
+    <t>QuotedLineItems</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Remander</t>
   </si>
 </sst>
 </file>
@@ -14104,36 +14137,36 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="47.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4535</v>
       </c>
@@ -14213,7 +14246,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3474</v>
       </c>
@@ -14287,7 +14320,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>860</v>
       </c>
@@ -14346,7 +14379,7 @@
         <v>4512</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>860</v>
       </c>
@@ -14411,7 +14444,7 @@
         <v>4507</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G5" t="s">
         <v>7</v>
       </c>
@@ -14458,7 +14491,7 @@
         <v>4502</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4501</v>
       </c>
@@ -14520,7 +14553,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>726</v>
       </c>
@@ -14591,7 +14624,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F8">
         <v>210</v>
       </c>
@@ -14647,7 +14680,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -14718,7 +14751,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F10">
         <v>300</v>
       </c>
@@ -14774,7 +14807,7 @@
         <v>4474</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F11">
         <v>200</v>
       </c>
@@ -14818,7 +14851,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>860</v>
       </c>
@@ -14883,7 +14916,7 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>726</v>
       </c>
@@ -14954,7 +14987,7 @@
         <v>4459</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2391</v>
       </c>
@@ -15025,7 +15058,7 @@
         <v>4456</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H15" s="1">
         <v>44847.549421296295</v>
       </c>
@@ -15060,7 +15093,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G16" t="s">
         <v>19</v>
       </c>
@@ -15116,7 +15149,7 @@
         <v>4453</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>860</v>
       </c>
@@ -15181,7 +15214,7 @@
         <v>4448</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2710</v>
       </c>
@@ -15255,7 +15288,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F19">
         <v>210</v>
       </c>
@@ -15311,7 +15344,7 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>726</v>
       </c>
@@ -15379,7 +15412,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>264</v>
       </c>
@@ -15453,7 +15486,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -15524,7 +15557,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>726</v>
       </c>
@@ -15589,7 +15622,7 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H24" s="1">
         <v>43994.425115740742</v>
       </c>
@@ -15627,7 +15660,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G25" t="s">
         <v>7</v>
       </c>
@@ -15677,7 +15710,7 @@
         <v>4409</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2710</v>
       </c>
@@ -15748,7 +15781,7 @@
         <v>4403</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G27" t="s">
         <v>2441</v>
       </c>
@@ -15798,7 +15831,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>860</v>
       </c>
@@ -15857,7 +15890,7 @@
         <v>4395</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G29" t="s">
         <v>2441</v>
       </c>
@@ -15907,7 +15940,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>860</v>
       </c>
@@ -15969,7 +16002,7 @@
         <v>4382</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G31" t="s">
         <v>7</v>
       </c>
@@ -16016,7 +16049,7 @@
         <v>4376</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G32" t="s">
         <v>2441</v>
       </c>
@@ -16066,7 +16099,7 @@
         <v>4369</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F33">
         <v>210</v>
       </c>
@@ -16122,7 +16155,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F34">
         <v>210</v>
       </c>
@@ -16178,7 +16211,7 @@
         <v>4364</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G35" t="s">
         <v>19</v>
       </c>
@@ -16231,7 +16264,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>860</v>
       </c>
@@ -16296,7 +16329,7 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>726</v>
       </c>
@@ -16364,7 +16397,7 @@
         <v>4347</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F38">
         <v>210</v>
       </c>
@@ -16414,7 +16447,7 @@
         <v>4027</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H39" s="1">
         <v>44025.632291666669</v>
       </c>
@@ -16452,7 +16485,7 @@
         <v>4337</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3474</v>
       </c>
@@ -16523,7 +16556,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F41">
         <v>200</v>
       </c>
@@ -16579,7 +16612,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G42" t="s">
         <v>7</v>
       </c>
@@ -16626,7 +16659,7 @@
         <v>4323</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1957</v>
       </c>
@@ -16697,7 +16730,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2710</v>
       </c>
@@ -16771,7 +16804,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1293</v>
       </c>
@@ -16836,7 +16869,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>726</v>
       </c>
@@ -16901,7 +16934,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>264</v>
       </c>
@@ -16972,7 +17005,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F48">
         <v>210</v>
       </c>
@@ -17022,7 +17055,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G49" t="s">
         <v>7</v>
       </c>
@@ -17072,7 +17105,7 @@
         <v>4283</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H50" s="1">
         <v>44056.405335648145</v>
       </c>
@@ -17113,7 +17146,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>860</v>
       </c>
@@ -17178,7 +17211,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>860</v>
       </c>
@@ -17243,7 +17276,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H53" s="1">
         <v>43745.25675925926</v>
       </c>
@@ -17284,7 +17317,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1293</v>
       </c>
@@ -17352,7 +17385,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>264</v>
       </c>
@@ -17426,7 +17459,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>264</v>
       </c>
@@ -17500,7 +17533,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1730</v>
       </c>
@@ -17565,7 +17598,7 @@
         <v>4249</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>726</v>
       </c>
@@ -17630,7 +17663,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F59">
         <v>300</v>
       </c>
@@ -17683,7 +17716,7 @@
         <v>4238</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>726</v>
       </c>
@@ -17754,7 +17787,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>3474</v>
       </c>
@@ -17828,7 +17861,7 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2509</v>
       </c>
@@ -17899,7 +17932,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F63">
         <v>210</v>
       </c>
@@ -17952,7 +17985,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>3474</v>
       </c>
@@ -18023,7 +18056,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F65">
         <v>210</v>
       </c>
@@ -18079,7 +18112,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>709</v>
       </c>
@@ -18150,7 +18183,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G67" t="s">
         <v>2441</v>
       </c>
@@ -18197,7 +18230,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G68" t="s">
         <v>19</v>
       </c>
@@ -18247,7 +18280,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G69" t="s">
         <v>7</v>
       </c>
@@ -18294,7 +18327,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -18365,7 +18398,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>2710</v>
       </c>
@@ -18436,7 +18469,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1957</v>
       </c>
@@ -18510,7 +18543,7 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F73">
         <v>210</v>
       </c>
@@ -18563,7 +18596,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H74" s="1">
         <v>44623.461168981485</v>
       </c>
@@ -18592,7 +18625,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F75">
         <v>200</v>
       </c>
@@ -18642,7 +18675,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F76">
         <v>200</v>
       </c>
@@ -18698,7 +18731,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F77">
         <v>200</v>
       </c>
@@ -18754,7 +18787,7 @@
         <v>4144</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>2402</v>
       </c>
@@ -18825,7 +18858,7 @@
         <v>4141</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G79" t="s">
         <v>19</v>
       </c>
@@ -18872,7 +18905,7 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>264</v>
       </c>
@@ -18940,7 +18973,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G81" t="s">
         <v>19</v>
       </c>
@@ -18996,7 +19029,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1293</v>
       </c>
@@ -19064,7 +19097,7 @@
         <v>4121</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>726</v>
       </c>
@@ -19129,7 +19162,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>2509</v>
       </c>
@@ -19200,7 +19233,7 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1957</v>
       </c>
@@ -19274,7 +19307,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>860</v>
       </c>
@@ -19339,7 +19372,7 @@
         <v>4103</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H87" s="1">
         <v>43950.393518518518</v>
       </c>
@@ -19383,7 +19416,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1293</v>
       </c>
@@ -19451,7 +19484,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>726</v>
       </c>
@@ -19522,7 +19555,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>860</v>
       </c>
@@ -19584,7 +19617,7 @@
         <v>4082</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G91" t="s">
         <v>7</v>
       </c>
@@ -19628,7 +19661,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H92" s="1">
         <v>43983.379513888889</v>
       </c>
@@ -19672,7 +19705,7 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>726</v>
       </c>
@@ -19743,7 +19776,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H94" s="1">
         <v>43948.38140046296</v>
       </c>
@@ -19784,7 +19817,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1730</v>
       </c>
@@ -19855,7 +19888,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>726</v>
       </c>
@@ -19923,7 +19956,7 @@
         <v>4051</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>860</v>
       </c>
@@ -19988,7 +20021,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F98">
         <v>200</v>
       </c>
@@ -20041,7 +20074,7 @@
         <v>4042</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G99" t="s">
         <v>2441</v>
       </c>
@@ -20085,7 +20118,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H100" s="1">
         <v>44847.625057870369</v>
       </c>
@@ -20129,7 +20162,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G101" t="s">
         <v>2441</v>
       </c>
@@ -20179,7 +20212,7 @@
         <v>4031</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H102" s="1">
         <v>44693.657465277778</v>
       </c>
@@ -20208,7 +20241,7 @@
         <v>4027</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -20282,7 +20315,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G104" t="s">
         <v>2441</v>
       </c>
@@ -20323,7 +20356,7 @@
         <v>4016</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F105">
         <v>210</v>
       </c>
@@ -20367,7 +20400,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1293</v>
       </c>
@@ -20435,7 +20468,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H107" s="1">
         <v>44847.55059027778</v>
       </c>
@@ -20470,7 +20503,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H108" s="1">
         <v>43950.39371527778</v>
       </c>
@@ -20517,7 +20550,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>860</v>
       </c>
@@ -20576,7 +20609,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G110" t="s">
         <v>19</v>
       </c>
@@ -20632,7 +20665,7 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G111" t="s">
         <v>19</v>
       </c>
@@ -20688,7 +20721,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F112">
         <v>210</v>
       </c>
@@ -20744,7 +20777,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>726</v>
       </c>
@@ -20818,7 +20851,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1730</v>
       </c>
@@ -20889,7 +20922,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H115" s="1">
         <v>43950.39366898148</v>
       </c>
@@ -20933,7 +20966,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F116">
         <v>200</v>
       </c>
@@ -20986,7 +21019,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G117" t="s">
         <v>1832</v>
       </c>
@@ -21033,7 +21066,7 @@
         <v>3963</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F118">
         <v>305</v>
       </c>
@@ -21083,7 +21116,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F119">
         <v>210</v>
       </c>
@@ -21139,7 +21172,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G120" t="s">
         <v>2441</v>
       </c>
@@ -21186,7 +21219,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1730</v>
       </c>
@@ -21257,7 +21290,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2402</v>
       </c>
@@ -21328,7 +21361,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G123" t="s">
         <v>2441</v>
       </c>
@@ -21381,7 +21414,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G124" t="s">
         <v>19</v>
       </c>
@@ -21437,7 +21470,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>860</v>
       </c>
@@ -21505,7 +21538,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>264</v>
       </c>
@@ -21576,7 +21609,7 @@
         <v>3916</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>726</v>
       </c>
@@ -21647,7 +21680,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>726</v>
       </c>
@@ -21715,7 +21748,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G129" t="s">
         <v>19</v>
       </c>
@@ -21768,7 +21801,7 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H130" s="1">
         <v>43950.393738425926</v>
       </c>
@@ -21815,7 +21848,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F131">
         <v>200</v>
       </c>
@@ -21871,7 +21904,7 @@
         <v>3893</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F132">
         <v>200</v>
       </c>
@@ -21927,7 +21960,7 @@
         <v>3888</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G133" t="s">
         <v>7</v>
       </c>
@@ -21974,7 +22007,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>116</v>
       </c>
@@ -22024,7 +22057,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G135" t="s">
         <v>2441</v>
       </c>
@@ -22074,7 +22107,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1730</v>
       </c>
@@ -22142,7 +22175,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>860</v>
       </c>
@@ -22204,7 +22237,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2509</v>
       </c>
@@ -22278,7 +22311,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>726</v>
       </c>
@@ -22346,7 +22379,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>264</v>
       </c>
@@ -22414,7 +22447,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>860</v>
       </c>
@@ -22479,7 +22512,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>1957</v>
       </c>
@@ -22556,7 +22589,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G143" t="s">
         <v>7</v>
       </c>
@@ -22606,7 +22639,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1957</v>
       </c>
@@ -22677,7 +22710,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F145">
         <v>200</v>
       </c>
@@ -22730,7 +22763,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>1730</v>
       </c>
@@ -22801,7 +22834,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>860</v>
       </c>
@@ -22866,7 +22899,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2391</v>
       </c>
@@ -22937,7 +22970,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F149">
         <v>300</v>
       </c>
@@ -22993,7 +23026,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G150" t="s">
         <v>2441</v>
       </c>
@@ -23040,7 +23073,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G151" t="s">
         <v>7</v>
       </c>
@@ -23090,7 +23123,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>726</v>
       </c>
@@ -23152,7 +23185,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F153">
         <v>200</v>
       </c>
@@ -23205,7 +23238,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>726</v>
       </c>
@@ -23267,7 +23300,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2509</v>
       </c>
@@ -23338,7 +23371,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>726</v>
       </c>
@@ -23406,7 +23439,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2391</v>
       </c>
@@ -23480,7 +23513,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>726</v>
       </c>
@@ -23545,7 +23578,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H159" s="1">
         <v>44847.551238425927</v>
       </c>
@@ -23580,7 +23613,7 @@
         <v>3742</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2710</v>
       </c>
@@ -23654,7 +23687,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F161">
         <v>300</v>
       </c>
@@ -23707,7 +23740,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>726</v>
       </c>
@@ -23769,7 +23802,7 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>726</v>
       </c>
@@ -23834,7 +23867,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>726</v>
       </c>
@@ -23905,7 +23938,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F165">
         <v>200</v>
       </c>
@@ -23955,7 +23988,7 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H166" s="1">
         <v>44693.668275462966</v>
       </c>
@@ -23984,7 +24017,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H167" s="1">
         <v>44693.668275462966</v>
       </c>
@@ -24013,7 +24046,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H168" s="1">
         <v>43950.393622685187</v>
       </c>
@@ -24060,7 +24093,7 @@
         <v>3703</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>726</v>
       </c>
@@ -24128,7 +24161,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>1957</v>
       </c>
@@ -24196,7 +24229,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>726</v>
       </c>
@@ -24261,7 +24294,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>860</v>
       </c>
@@ -24326,7 +24359,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>3474</v>
       </c>
@@ -24400,7 +24433,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>726</v>
       </c>
@@ -24465,7 +24498,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G175" t="s">
         <v>2441</v>
       </c>
@@ -24515,7 +24548,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F176">
         <v>200</v>
       </c>
@@ -24565,7 +24598,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>860</v>
       </c>
@@ -24636,7 +24669,7 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>726</v>
       </c>
@@ -24701,7 +24734,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>860</v>
       </c>
@@ -24760,7 +24793,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>697</v>
       </c>
@@ -24816,7 +24849,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>3474</v>
       </c>
@@ -24887,7 +24920,7 @@
         <v>3622</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>2391</v>
       </c>
@@ -24958,7 +24991,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>860</v>
       </c>
@@ -25020,7 +25053,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>726</v>
       </c>
@@ -25085,7 +25118,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>860</v>
       </c>
@@ -25147,7 +25180,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>726</v>
       </c>
@@ -25218,7 +25251,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1730</v>
       </c>
@@ -25289,7 +25322,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>726</v>
       </c>
@@ -25360,7 +25393,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H189" s="1">
         <v>43935.414641203701</v>
       </c>
@@ -25401,7 +25434,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G190" t="s">
         <v>19</v>
       </c>
@@ -25454,7 +25487,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H191" s="1">
         <v>43985.268159722225</v>
       </c>
@@ -25495,7 +25528,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G192" t="s">
         <v>19</v>
       </c>
@@ -25545,7 +25578,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>709</v>
       </c>
@@ -25616,7 +25649,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -25687,7 +25720,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G195" t="s">
         <v>19</v>
       </c>
@@ -25734,7 +25767,7 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H196" s="1">
         <v>43983.379490740743</v>
       </c>
@@ -25781,7 +25814,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H197" s="1">
         <v>44700.434120370373</v>
       </c>
@@ -25810,7 +25843,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>726</v>
       </c>
@@ -25881,7 +25914,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>2509</v>
       </c>
@@ -25955,7 +25988,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1293</v>
       </c>
@@ -26020,7 +26053,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H201" s="1">
         <v>44704.381145833337</v>
       </c>
@@ -26049,7 +26082,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>726</v>
       </c>
@@ -26114,7 +26147,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1957</v>
       </c>
@@ -26182,7 +26215,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -26244,7 +26277,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>860</v>
       </c>
@@ -26312,7 +26345,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G206" t="s">
         <v>7</v>
       </c>
@@ -26359,7 +26392,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F207">
         <v>200</v>
       </c>
@@ -26412,7 +26445,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F208">
         <v>200</v>
       </c>
@@ -26459,7 +26492,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H209" s="1">
         <v>44645.390034722222</v>
       </c>
@@ -26488,7 +26521,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>709</v>
       </c>
@@ -26562,7 +26595,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>3474</v>
       </c>
@@ -26633,7 +26666,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F212">
         <v>210</v>
       </c>
@@ -26689,7 +26722,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>2391</v>
       </c>
@@ -26760,7 +26793,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H214" s="1">
         <v>44617.433009259257</v>
       </c>
@@ -26789,7 +26822,7 @@
         <v>3451</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>264</v>
       </c>
@@ -26860,7 +26893,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>726</v>
       </c>
@@ -26928,7 +26961,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F217">
         <v>200</v>
       </c>
@@ -26987,7 +27020,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>860</v>
       </c>
@@ -27043,7 +27076,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>2391</v>
       </c>
@@ -27114,7 +27147,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F220">
         <v>200</v>
       </c>
@@ -27167,7 +27200,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>726</v>
       </c>
@@ -27241,7 +27274,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G222" t="s">
         <v>7</v>
       </c>
@@ -27291,7 +27324,7 @@
         <v>3405</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G223" t="s">
         <v>19</v>
       </c>
@@ -27344,7 +27377,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>2391</v>
       </c>
@@ -27412,7 +27445,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>709</v>
       </c>
@@ -27489,7 +27522,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>1293</v>
       </c>
@@ -27557,7 +27590,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H227" s="1">
         <v>43909.440833333334</v>
       </c>
@@ -27595,7 +27628,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>860</v>
       </c>
@@ -27654,7 +27687,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>2710</v>
       </c>
@@ -27725,7 +27758,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G230" t="s">
         <v>7</v>
       </c>
@@ -27775,7 +27808,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>726</v>
       </c>
@@ -27846,7 +27879,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>264</v>
       </c>
@@ -27920,7 +27953,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H233" s="1">
         <v>44704.381469907406</v>
       </c>
@@ -27949,7 +27982,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H234" s="1">
         <v>44645.390300925923</v>
       </c>
@@ -27978,7 +28011,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H235" s="1">
         <v>44645.390300925923</v>
       </c>
@@ -28007,7 +28040,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G236" t="s">
         <v>2441</v>
       </c>
@@ -28057,7 +28090,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1730</v>
       </c>
@@ -28122,7 +28155,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>726</v>
       </c>
@@ -28187,7 +28220,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H239" s="1">
         <v>43909.440844907411</v>
       </c>
@@ -28225,7 +28258,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>726</v>
       </c>
@@ -28293,7 +28326,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>1730</v>
       </c>
@@ -28364,7 +28397,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>860</v>
       </c>
@@ -28426,7 +28459,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G243" t="s">
         <v>7</v>
       </c>
@@ -28479,7 +28512,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>860</v>
       </c>
@@ -28544,7 +28577,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>1293</v>
       </c>
@@ -28612,7 +28645,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F246">
         <v>200</v>
       </c>
@@ -28665,7 +28698,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>726</v>
       </c>
@@ -28736,7 +28769,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F248">
         <v>200</v>
       </c>
@@ -28786,7 +28819,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>2509</v>
       </c>
@@ -28857,7 +28890,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D250" t="s">
         <v>59</v>
       </c>
@@ -28913,7 +28946,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F251">
         <v>200</v>
       </c>
@@ -28969,7 +29002,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>1293</v>
       </c>
@@ -29037,7 +29070,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F253">
         <v>200</v>
       </c>
@@ -29090,7 +29123,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G254" t="s">
         <v>19</v>
       </c>
@@ -29140,7 +29173,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>2710</v>
       </c>
@@ -29214,7 +29247,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>726</v>
       </c>
@@ -29285,7 +29318,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G257" t="s">
         <v>7</v>
       </c>
@@ -29332,7 +29365,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G258" t="s">
         <v>19</v>
       </c>
@@ -29382,7 +29415,7 @@
         <v>3209</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1957</v>
       </c>
@@ -29450,7 +29483,7 @@
         <v>3203</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F260">
         <v>210</v>
       </c>
@@ -29494,7 +29527,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H261" s="1">
         <v>44704.391747685186</v>
       </c>
@@ -29523,7 +29556,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>2509</v>
       </c>
@@ -29594,7 +29627,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -29665,7 +29698,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1730</v>
       </c>
@@ -29733,7 +29766,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>726</v>
       </c>
@@ -29798,7 +29831,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H266" s="1">
         <v>44627.430393518516</v>
       </c>
@@ -29827,7 +29860,7 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H267" s="1">
         <v>44627.430393518516</v>
       </c>
@@ -29856,7 +29889,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>726</v>
       </c>
@@ -29924,7 +29957,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H269" s="1">
         <v>44704.381909722222</v>
       </c>
@@ -29953,7 +29986,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>726</v>
       </c>
@@ -30018,7 +30051,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>709</v>
       </c>
@@ -30086,7 +30119,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H272" s="1">
         <v>44272.615590277775</v>
       </c>
@@ -30127,7 +30160,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F273">
         <v>200</v>
       </c>
@@ -30171,7 +30204,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G274" t="s">
         <v>80</v>
       </c>
@@ -30224,7 +30257,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H275" s="1">
         <v>44994.270624999997</v>
       </c>
@@ -30262,7 +30295,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1957</v>
       </c>
@@ -30333,7 +30366,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G277" t="s">
         <v>19</v>
       </c>
@@ -30386,7 +30419,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>726</v>
       </c>
@@ -30451,7 +30484,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F279">
         <v>200</v>
       </c>
@@ -30504,7 +30537,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>726</v>
       </c>
@@ -30569,7 +30602,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F281">
         <v>200</v>
       </c>
@@ -30619,7 +30652,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F282">
         <v>200</v>
       </c>
@@ -30678,7 +30711,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>860</v>
       </c>
@@ -30743,7 +30776,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>2710</v>
       </c>
@@ -30811,7 +30844,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F285">
         <v>200</v>
       </c>
@@ -30855,7 +30888,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G286" t="s">
         <v>2441</v>
       </c>
@@ -30902,7 +30935,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>1730</v>
       </c>
@@ -30970,7 +31003,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G288" t="s">
         <v>7</v>
       </c>
@@ -31014,7 +31047,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>2402</v>
       </c>
@@ -31082,7 +31115,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F290">
         <v>210</v>
       </c>
@@ -31141,7 +31174,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>726</v>
       </c>
@@ -31212,7 +31245,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>860</v>
       </c>
@@ -31271,7 +31304,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G293" t="s">
         <v>7</v>
       </c>
@@ -31324,7 +31357,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>860</v>
       </c>
@@ -31389,7 +31422,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>2509</v>
       </c>
@@ -31460,7 +31493,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>10</v>
       </c>
@@ -31528,7 +31561,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>117</v>
       </c>
@@ -31584,7 +31617,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F298">
         <v>200</v>
       </c>
@@ -31640,7 +31673,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G299" t="s">
         <v>7</v>
       </c>
@@ -31687,7 +31720,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F300">
         <v>200</v>
       </c>
@@ -31740,7 +31773,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>2402</v>
       </c>
@@ -31811,7 +31844,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>2710</v>
       </c>
@@ -31876,7 +31909,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F303">
         <v>300</v>
       </c>
@@ -31935,7 +31968,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>726</v>
       </c>
@@ -32003,7 +32036,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>860</v>
       </c>
@@ -32065,7 +32098,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
         <v>2441</v>
       </c>
@@ -32118,7 +32151,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>726</v>
       </c>
@@ -32189,7 +32222,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>264</v>
       </c>
@@ -32263,7 +32296,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F309">
         <v>200</v>
       </c>
@@ -32316,7 +32349,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F310">
         <v>200</v>
       </c>
@@ -32369,7 +32402,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>726</v>
       </c>
@@ -32440,7 +32473,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>726</v>
       </c>
@@ -32511,7 +32544,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F313">
         <v>210</v>
       </c>
@@ -32567,7 +32600,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H314" s="1">
         <v>43917.530011574076</v>
       </c>
@@ -32608,7 +32641,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>726</v>
       </c>
@@ -32673,7 +32706,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G316" t="s">
         <v>19</v>
       </c>
@@ -32720,7 +32753,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>2710</v>
       </c>
@@ -32788,7 +32821,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1957</v>
       </c>
@@ -32862,7 +32895,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H319" s="1">
         <v>43943.30363425926</v>
       </c>
@@ -32903,7 +32936,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>2710</v>
       </c>
@@ -32974,7 +33007,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>860</v>
       </c>
@@ -33042,7 +33075,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>2402</v>
       </c>
@@ -33107,7 +33140,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>726</v>
       </c>
@@ -33178,7 +33211,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F324">
         <v>210</v>
       </c>
@@ -33231,7 +33264,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>709</v>
       </c>
@@ -33305,7 +33338,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F326">
         <v>200</v>
       </c>
@@ -33358,7 +33391,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H327" s="1">
         <v>43950.393483796295</v>
       </c>
@@ -33402,7 +33435,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H328" s="1">
         <v>43909.440844907411</v>
       </c>
@@ -33443,7 +33476,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>726</v>
       </c>
@@ -33514,7 +33547,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F330">
         <v>200</v>
       </c>
@@ -33567,7 +33600,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H331" s="1">
         <v>43950.393564814818</v>
       </c>
@@ -33608,7 +33641,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F332">
         <v>210</v>
       </c>
@@ -33664,7 +33697,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G333" t="s">
         <v>19</v>
       </c>
@@ -33723,7 +33756,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>726</v>
       </c>
@@ -33791,7 +33824,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>726</v>
       </c>
@@ -33865,7 +33898,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>10</v>
       </c>
@@ -33939,7 +33972,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1293</v>
       </c>
@@ -34007,7 +34040,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G338" t="s">
         <v>7</v>
       </c>
@@ -34054,7 +34087,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>726</v>
       </c>
@@ -34125,7 +34158,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G340" t="s">
         <v>19</v>
       </c>
@@ -34178,7 +34211,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>726</v>
       </c>
@@ -34249,7 +34282,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>726</v>
       </c>
@@ -34317,7 +34350,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F343">
         <v>210</v>
       </c>
@@ -34361,7 +34394,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G344" t="s">
         <v>7</v>
       </c>
@@ -34408,7 +34441,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>860</v>
       </c>
@@ -34473,7 +34506,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>726</v>
       </c>
@@ -34544,7 +34577,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>2710</v>
       </c>
@@ -34612,7 +34645,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H348" s="1">
         <v>43950.393750000003</v>
       </c>
@@ -34656,7 +34689,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1957</v>
       </c>
@@ -34730,7 +34763,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>2690</v>
       </c>
@@ -34792,7 +34825,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>726</v>
       </c>
@@ -34863,7 +34896,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>726</v>
       </c>
@@ -34931,7 +34964,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>10</v>
       </c>
@@ -35002,7 +35035,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1730</v>
       </c>
@@ -35073,7 +35106,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H355" s="1">
         <v>43983.379513888889</v>
       </c>
@@ -35117,7 +35150,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G356" t="s">
         <v>7</v>
       </c>
@@ -35173,7 +35206,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>1957</v>
       </c>
@@ -35241,7 +35274,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G358" t="s">
         <v>19</v>
       </c>
@@ -35297,7 +35330,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>726</v>
       </c>
@@ -35365,7 +35398,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>726</v>
       </c>
@@ -35439,7 +35472,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G361" t="s">
         <v>19</v>
       </c>
@@ -35486,7 +35519,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H362" s="1">
         <v>44504.431620370371</v>
       </c>
@@ -35524,7 +35557,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F363">
         <v>200</v>
       </c>
@@ -35583,7 +35616,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H364" s="1">
         <v>44039.408553240741</v>
       </c>
@@ -35624,7 +35657,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G365" t="s">
         <v>2441</v>
       </c>
@@ -35671,7 +35704,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F366">
         <v>210</v>
       </c>
@@ -35715,7 +35748,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>726</v>
       </c>
@@ -35783,7 +35816,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G368" t="s">
         <v>7</v>
       </c>
@@ -35830,7 +35863,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>860</v>
       </c>
@@ -35898,7 +35931,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>726</v>
       </c>
@@ -35966,7 +35999,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H371" s="1">
         <v>44697.553078703706</v>
       </c>
@@ -35995,7 +36028,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H372" s="1">
         <v>44697.553078703706</v>
       </c>
@@ -36024,7 +36057,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G373" t="s">
         <v>7</v>
       </c>
@@ -36071,7 +36104,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F374">
         <v>210</v>
       </c>
@@ -36115,7 +36148,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F375">
         <v>200</v>
       </c>
@@ -36165,7 +36198,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>860</v>
       </c>
@@ -36227,7 +36260,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>726</v>
       </c>
@@ -36298,7 +36331,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>726</v>
       </c>
@@ -36363,7 +36396,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="379" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>2509</v>
       </c>
@@ -36434,7 +36467,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G380" t="s">
         <v>19</v>
       </c>
@@ -36484,7 +36517,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="381" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>726</v>
       </c>
@@ -36549,7 +36582,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>264</v>
       </c>
@@ -36620,7 +36653,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F383">
         <v>200</v>
       </c>
@@ -36670,7 +36703,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>860</v>
       </c>
@@ -36735,7 +36768,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H385" s="1">
         <v>44847.625613425924</v>
       </c>
@@ -36776,7 +36809,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>860</v>
       </c>
@@ -36844,7 +36877,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G387" t="s">
         <v>19</v>
       </c>
@@ -36894,7 +36927,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>860</v>
       </c>
@@ -36959,7 +36992,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>726</v>
       </c>
@@ -37030,7 +37063,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1957</v>
       </c>
@@ -37101,7 +37134,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>2419</v>
       </c>
@@ -37169,7 +37202,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>726</v>
       </c>
@@ -37234,7 +37267,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>2402</v>
       </c>
@@ -37302,7 +37335,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>2391</v>
       </c>
@@ -37376,7 +37409,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>726</v>
       </c>
@@ -37447,7 +37480,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26" x14ac:dyDescent="0.35">
       <c r="H396" s="1">
         <v>44847.624432870369</v>
       </c>
@@ -37488,7 +37521,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="397" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G397" t="s">
         <v>7</v>
       </c>
@@ -37541,7 +37574,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="398" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1293</v>
       </c>
@@ -37606,7 +37639,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F399">
         <v>210</v>
       </c>
@@ -37653,7 +37686,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F400">
         <v>200</v>
       </c>
@@ -37709,7 +37742,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="401" spans="7:26" x14ac:dyDescent="0.25">
+    <row r="401" spans="7:26" x14ac:dyDescent="0.35">
       <c r="G401" t="s">
         <v>7</v>
       </c>
@@ -37769,12 +37802,139 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA96B8-526F-4D9B-853D-5D0959C0067C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4538</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B2:B10)</f>
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4546</v>
+      </c>
+      <c r="E11">
+        <f>B11-C11</f>
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37783,50 +37943,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53567C1A-6129-422A-B194-D3EA336E6D33}">
   <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH7" workbookViewId="0">
+    <sheetView topLeftCell="AH1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="103.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="103.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.7265625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="17" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2322</v>
       </c>
@@ -37942,7 +38102,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2305</v>
       </c>
@@ -38004,7 +38164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2303</v>
       </c>
@@ -38066,7 +38226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2305</v>
       </c>
@@ -38128,7 +38288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2303</v>
       </c>
@@ -38190,7 +38350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2301</v>
       </c>
@@ -38258,7 +38418,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2299</v>
       </c>
@@ -38326,7 +38486,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2297</v>
       </c>
@@ -38394,7 +38554,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2293</v>
       </c>
@@ -38462,7 +38622,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2291</v>
       </c>
@@ -38530,7 +38690,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2293</v>
       </c>
@@ -38598,7 +38758,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2291</v>
       </c>
@@ -38666,7 +38826,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2289</v>
       </c>
@@ -38734,7 +38894,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2286</v>
       </c>
@@ -38802,7 +38962,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2283</v>
       </c>
@@ -38870,7 +39030,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2274</v>
       </c>
@@ -38929,7 +39089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2271</v>
       </c>
@@ -38988,7 +39148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2268</v>
       </c>
@@ -39047,7 +39207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2265</v>
       </c>
@@ -39106,7 +39266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2262</v>
       </c>
@@ -39165,7 +39325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2259</v>
       </c>
@@ -39224,7 +39384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2257</v>
       </c>
@@ -39283,7 +39443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2254</v>
       </c>
@@ -39342,7 +39502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2252</v>
       </c>
@@ -39401,7 +39561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2250</v>
       </c>
@@ -39460,7 +39620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2247</v>
       </c>
@@ -39519,7 +39679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2244</v>
       </c>
@@ -39578,7 +39738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2242</v>
       </c>
@@ -39637,7 +39797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2239</v>
       </c>
@@ -39696,7 +39856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2237</v>
       </c>
@@ -39755,7 +39915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2234</v>
       </c>
@@ -39814,7 +39974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2231</v>
       </c>
@@ -39873,7 +40033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2229</v>
       </c>
@@ -39932,7 +40092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2226</v>
       </c>
@@ -39991,7 +40151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2224</v>
       </c>
@@ -40050,7 +40210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2220</v>
       </c>
@@ -40122,195 +40282,195 @@
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="68.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.81640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="63.7265625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="22" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="25" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="14" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="11" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="7" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="20" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="14" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="102" max="103" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="16" bestFit="1" customWidth="1"/>
     <col min="109" max="109" width="21" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="20" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="23" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="15" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="17" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="24" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="24" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="24" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="24" bestFit="1" customWidth="1"/>
-    <col min="141" max="144" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="150" max="152" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="141" max="144" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="150" max="152" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="6" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="167" max="167" width="14" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="15" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="21" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="4.26953125" bestFit="1" customWidth="1"/>
     <col min="179" max="179" width="29" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="182" max="182" width="29" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="185" max="185" width="29" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>590</v>
       </c>
@@ -40885,7 +41045,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="2" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1975</v>
       </c>
@@ -41088,7 +41248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1965</v>
       </c>
@@ -41291,7 +41451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1955</v>
       </c>
@@ -41485,7 +41645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:191" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:191" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1945</v>
       </c>
@@ -41625,7 +41785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -41774,7 +41934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1930</v>
       </c>
@@ -41986,7 +42146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1919</v>
       </c>
@@ -42135,7 +42295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1912</v>
       </c>
@@ -42344,7 +42504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1898</v>
       </c>
@@ -42547,7 +42707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1885</v>
       </c>
@@ -42702,7 +42862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1875</v>
       </c>
@@ -42860,7 +43020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1865</v>
       </c>
@@ -43060,7 +43220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1853</v>
       </c>
@@ -43242,7 +43402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:191" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:191" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1840</v>
       </c>
@@ -43412,7 +43572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:191" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:191" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1830</v>
       </c>
@@ -43585,7 +43745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:190" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:190" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1819</v>
       </c>
@@ -43758,7 +43918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1802</v>
       </c>
@@ -43955,7 +44115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1789</v>
       </c>
@@ -44152,7 +44312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1775</v>
       </c>
@@ -44331,7 +44491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1765</v>
       </c>
@@ -44507,7 +44667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1755</v>
       </c>
@@ -44671,7 +44831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1748</v>
       </c>
@@ -44850,7 +45010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1739</v>
       </c>
@@ -45050,7 +45210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1728</v>
       </c>
@@ -45235,7 +45395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1717</v>
       </c>
@@ -45414,7 +45574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1703</v>
       </c>
@@ -45608,7 +45768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1693</v>
       </c>
@@ -45760,7 +45920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1683</v>
       </c>
@@ -45948,7 +46108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1667</v>
       </c>
@@ -46142,7 +46302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1657</v>
       </c>
@@ -46348,7 +46508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:190" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:190" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1645</v>
       </c>
@@ -46494,7 +46654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1628</v>
       </c>
@@ -46640,7 +46800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1624</v>
       </c>
@@ -46831,7 +46991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1609</v>
       </c>
@@ -47025,7 +47185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:190" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:190" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1598</v>
       </c>
@@ -47239,13 +47399,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3AF5C6-79CC-4E93-8BC8-C3BE5B17FB45}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>390</v>
       </c>
@@ -47325,7 +47485,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>686</v>
       </c>
@@ -47393,7 +47553,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>685</v>
       </c>
@@ -47458,7 +47618,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>684</v>
       </c>
@@ -47526,7 +47686,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>682</v>
       </c>
@@ -47591,7 +47751,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>681</v>
       </c>
@@ -47659,7 +47819,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>678</v>
       </c>
@@ -47727,7 +47887,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>675</v>
       </c>
@@ -47795,7 +47955,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>673</v>
       </c>
@@ -47863,7 +48023,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>671</v>
       </c>
@@ -47925,7 +48085,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>670</v>
       </c>
@@ -47993,7 +48153,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>667</v>
       </c>
@@ -48061,7 +48221,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>664</v>
       </c>
@@ -48126,7 +48286,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>662</v>
       </c>
@@ -48191,7 +48351,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>657</v>
       </c>
@@ -48253,7 +48413,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>655</v>
       </c>
@@ -48315,7 +48475,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>653</v>
       </c>
@@ -48377,7 +48537,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>652</v>
       </c>
@@ -48445,7 +48605,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>649</v>
       </c>
@@ -48510,7 +48670,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>646</v>
       </c>
@@ -48578,7 +48738,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>643</v>
       </c>
@@ -48640,7 +48800,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>639</v>
       </c>
@@ -48702,7 +48862,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>637</v>
       </c>
@@ -48767,7 +48927,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>634</v>
       </c>
@@ -48832,7 +48992,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>632</v>
       </c>
@@ -48894,7 +49054,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>630</v>
       </c>
@@ -48959,7 +49119,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>628</v>
       </c>
@@ -49027,7 +49187,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>625</v>
       </c>
@@ -49092,7 +49252,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>622</v>
       </c>
@@ -49157,7 +49317,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>619</v>
       </c>
@@ -49225,7 +49385,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>616</v>
       </c>
@@ -49293,7 +49453,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>614</v>
       </c>
@@ -49361,7 +49521,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>612</v>
       </c>
@@ -49426,7 +49586,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>610</v>
       </c>
@@ -49494,7 +49654,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>601</v>
       </c>
@@ -49559,7 +49719,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>598</v>
       </c>
@@ -49642,9 +49802,9 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1275</v>
       </c>
@@ -50147,7 +50307,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="2" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1142</v>
       </c>
@@ -50299,7 +50459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1126</v>
       </c>
@@ -50475,7 +50635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1115</v>
       </c>
@@ -50645,7 +50805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1100</v>
       </c>
@@ -50815,7 +50975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1089</v>
       </c>
@@ -50961,7 +51121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:167" ht="300" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:167" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1079</v>
       </c>
@@ -51116,7 +51276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1063</v>
       </c>
@@ -51247,7 +51407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1056</v>
       </c>
@@ -51402,7 +51562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1045</v>
       </c>
@@ -51590,7 +51750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1035</v>
       </c>
@@ -51742,7 +51902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:167" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:167" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>950</v>
       </c>
@@ -51909,7 +52069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1009</v>
       </c>
@@ -52082,7 +52242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>999</v>
       </c>
@@ -52273,7 +52433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>990</v>
       </c>
@@ -52440,7 +52600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:167" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:167" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>978</v>
       </c>
@@ -52571,7 +52731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>969</v>
       </c>
@@ -52738,7 +52898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>958</v>
       </c>
@@ -52896,7 +53056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>950</v>
       </c>
@@ -53048,7 +53208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>937</v>
       </c>
@@ -53206,7 +53366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>918</v>
       </c>
@@ -53358,7 +53518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>901</v>
       </c>
@@ -53528,7 +53688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:166" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:166" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>890</v>
       </c>
@@ -53683,7 +53843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>879</v>
       </c>
@@ -53841,7 +54001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>864</v>
       </c>
@@ -53996,7 +54156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>850</v>
       </c>
@@ -54124,7 +54284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>838</v>
       </c>
@@ -54279,7 +54439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>825</v>
       </c>
@@ -54446,7 +54606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>813</v>
       </c>
@@ -54616,7 +54776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>803</v>
       </c>
@@ -54771,7 +54931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>787</v>
       </c>
@@ -54941,7 +55101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:166" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:166" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>769</v>
       </c>
@@ -55144,7 +55304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>751</v>
       </c>
@@ -55311,7 +55471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>732</v>
       </c>
@@ -55466,7 +55626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>715</v>
       </c>
@@ -55618,7 +55778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:166" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>704</v>
       </c>
@@ -55788,9 +55948,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>590</v>
       </c>
@@ -55990,7 +56150,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>546</v>
       </c>
@@ -56112,7 +56272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>541</v>
       </c>
@@ -56234,7 +56394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>538</v>
       </c>
@@ -56356,7 +56516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>535</v>
       </c>
@@ -56478,7 +56638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>532</v>
       </c>
@@ -56597,7 +56757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>529</v>
       </c>
@@ -56713,7 +56873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>526</v>
       </c>
@@ -56832,7 +56992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>523</v>
       </c>
@@ -56954,7 +57114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>518</v>
       </c>
@@ -57070,7 +57230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1604</v>
       </c>
@@ -57192,7 +57352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>514</v>
       </c>
@@ -57311,7 +57471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>511</v>
       </c>
@@ -57433,7 +57593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>506</v>
       </c>
@@ -57555,7 +57715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>498</v>
       </c>
@@ -57677,7 +57837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>493</v>
       </c>
@@ -57799,7 +57959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>490</v>
       </c>
@@ -57921,7 +58081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:63" ht="210" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" ht="203" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>487</v>
       </c>
@@ -58043,7 +58203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>484</v>
       </c>
@@ -58165,7 +58325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>481</v>
       </c>
@@ -58287,7 +58447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>476</v>
       </c>
@@ -58409,7 +58569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>473</v>
       </c>
@@ -58531,7 +58691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>470</v>
       </c>
@@ -58650,7 +58810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>465</v>
       </c>
@@ -58772,7 +58932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>460</v>
       </c>
@@ -58891,7 +59051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>458</v>
       </c>
@@ -59013,7 +59173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>454</v>
       </c>
@@ -59132,7 +59292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>449</v>
       </c>
@@ -59254,7 +59414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>445</v>
       </c>
@@ -59373,7 +59533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>440</v>
       </c>
@@ -59498,7 +59658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>434</v>
       </c>
@@ -59614,7 +59774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>430</v>
       </c>
@@ -59733,7 +59893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:63" ht="285" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>423</v>
       </c>
@@ -59858,7 +60018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>415</v>
       </c>
@@ -59977,7 +60137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:63" ht="270" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" ht="261" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>409</v>
       </c>
@@ -60102,7 +60262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>399</v>
       </c>
@@ -60233,13 +60393,13 @@
       <selection activeCell="AR1" activeCellId="2" sqref="AL1:AL1048576 AO1:AO1048576 AR1:AR1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>390</v>
       </c>
@@ -60469,7 +60629,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>314</v>
       </c>
@@ -60597,7 +60757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -60728,7 +60888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -60862,7 +61022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>283</v>
       </c>
@@ -60966,7 +61126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -61088,7 +61248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>266</v>
       </c>
@@ -61216,7 +61376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -61341,7 +61501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -61469,7 +61629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -61573,7 +61733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -61701,7 +61861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -61832,7 +61992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -61951,7 +62111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -62076,7 +62236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -62198,7 +62358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -62320,7 +62480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -62442,7 +62602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>183</v>
       </c>
@@ -62540,7 +62700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>177</v>
       </c>
@@ -62665,7 +62825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -62787,7 +62947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>156</v>
       </c>
@@ -62891,7 +63051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -63019,7 +63179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -63147,7 +63307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -63275,7 +63435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -63409,7 +63569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -63537,7 +63697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -63662,7 +63822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -63787,7 +63947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -63909,7 +64069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -64037,7 +64197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -64165,7 +64325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -64263,7 +64423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -64391,7 +64551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -64495,7 +64655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -64620,7 +64780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -64763,9 +64923,9 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>390</v>
       </c>
@@ -64854,7 +65014,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2208</v>
       </c>
@@ -64913,7 +65073,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2204</v>
       </c>
@@ -64972,7 +65132,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2201</v>
       </c>
@@ -65034,7 +65194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2199</v>
       </c>
@@ -65090,7 +65250,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2197</v>
       </c>
@@ -65146,7 +65306,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2196</v>
       </c>
@@ -65205,7 +65365,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2194</v>
       </c>
@@ -65264,7 +65424,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2191</v>
       </c>
@@ -65326,7 +65486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2187</v>
       </c>
@@ -65385,7 +65545,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2184</v>
       </c>
@@ -65444,7 +65604,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2182</v>
       </c>
@@ -65500,7 +65660,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2181</v>
       </c>
@@ -65556,7 +65716,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2179</v>
       </c>
@@ -65612,7 +65772,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2178</v>
       </c>
@@ -65671,7 +65831,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2175</v>
       </c>
@@ -65727,7 +65887,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2174</v>
       </c>
@@ -65786,7 +65946,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2171</v>
       </c>
@@ -65842,7 +66002,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2169</v>
       </c>
@@ -65901,7 +66061,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2164</v>
       </c>
@@ -65957,7 +66117,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2163</v>
       </c>
@@ -66019,7 +66179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2159</v>
       </c>
@@ -66081,7 +66241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2156</v>
       </c>
@@ -66140,7 +66300,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2152</v>
       </c>
@@ -66196,7 +66356,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2151</v>
       </c>
@@ -66258,7 +66418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2147</v>
       </c>
@@ -66314,7 +66474,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2146</v>
       </c>
@@ -66373,7 +66533,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2143</v>
       </c>
@@ -66435,7 +66595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2140</v>
       </c>
@@ -66491,7 +66651,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2137</v>
       </c>
@@ -66550,7 +66710,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2133</v>
       </c>
@@ -66609,7 +66769,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2129</v>
       </c>
@@ -66671,7 +66831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2124</v>
       </c>
@@ -66727,7 +66887,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2123</v>
       </c>
@@ -66789,7 +66949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2119</v>
       </c>
@@ -66845,7 +67005,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2115</v>
       </c>
@@ -66921,13 +67081,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A577C16C-42FB-4708-A8E4-5FC6ECFB8278}">
   <dimension ref="A1:EE36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="EB1" sqref="EB1:EB1048576"/>
+    <sheetView topLeftCell="DE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="EH1" sqref="EH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1275</v>
       </c>
@@ -67334,7 +67494,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="2" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1320</v>
       </c>
@@ -67486,7 +67646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1536</v>
       </c>
@@ -67626,7 +67786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1531</v>
       </c>
@@ -67778,7 +67938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1524</v>
       </c>
@@ -67930,7 +68090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1504</v>
       </c>
@@ -68082,7 +68242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1510</v>
       </c>
@@ -68234,7 +68394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1504</v>
       </c>
@@ -68395,7 +68555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1496</v>
       </c>
@@ -68535,7 +68695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1492</v>
       </c>
@@ -68675,7 +68835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1486</v>
       </c>
@@ -68827,7 +68987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1479</v>
       </c>
@@ -68979,7 +69139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1469</v>
       </c>
@@ -69119,7 +69279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1465</v>
       </c>
@@ -69271,7 +69431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1456</v>
       </c>
@@ -69423,7 +69583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:135" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1448</v>
       </c>
@@ -69575,7 +69735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1440</v>
       </c>
@@ -69715,7 +69875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1436</v>
       </c>
@@ -69867,7 +70027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1426</v>
       </c>
@@ -70007,7 +70167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1422</v>
       </c>
@@ -70159,7 +70319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1415</v>
       </c>
@@ -70311,7 +70471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1408</v>
       </c>
@@ -70463,7 +70623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1399</v>
       </c>
@@ -70615,7 +70775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1391</v>
       </c>
@@ -70755,7 +70915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1383</v>
       </c>
@@ -70907,7 +71067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1374</v>
       </c>
@@ -71059,7 +71219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1366</v>
       </c>
@@ -71211,7 +71371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1345</v>
       </c>
@@ -71372,7 +71532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1293</v>
       </c>
@@ -71503,7 +71663,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="30" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1345</v>
       </c>
@@ -71664,7 +71824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1335</v>
       </c>
@@ -71816,7 +71976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>790</v>
       </c>
@@ -71956,7 +72116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1320</v>
       </c>
@@ -72108,7 +72268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1311</v>
       </c>
@@ -72248,7 +72408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1303</v>
       </c>
@@ -72397,7 +72557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:134" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:134" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1298</v>
       </c>

--- a/Tickets/Normal Tickets/Ticket 37212 - SugarCRM Data for Snowflake Tableau/Sugar Tables needed for Tableau.xlsx
+++ b/Tickets/Normal Tickets/Ticket 37212 - SugarCRM Data for Snowflake Tableau/Sugar Tables needed for Tableau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 37212 - SugarCRM Data for Snowflake Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D87853-01D9-4046-8B8B-95518F23BE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9BE579-8E00-4079-B2FD-973624972745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="3" xr2:uid="{F2E0F6E5-B26F-45CD-B484-4192DACE7B07}"/>
+    <workbookView xWindow="-120" yWindow="-32520" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{F2E0F6E5-B26F-45CD-B484-4192DACE7B07}"/>
   </bookViews>
   <sheets>
     <sheet name="User Table" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12271" uniqueCount="4547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12271" uniqueCount="4567">
   <si>
     <t>Admin Administrator</t>
   </si>
@@ -13629,45 +13629,6 @@
     <t>Natalie Debruin</t>
   </si>
   <si>
-    <t>Work Phone</t>
-  </si>
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>Syspro Salesperson Code</t>
-  </si>
-  <si>
-    <t>Reports to ID</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>last login</t>
-  </si>
-  <si>
-    <t>Is Administrator</t>
-  </si>
-  <si>
-    <t>Date Entered</t>
-  </si>
-  <si>
-    <t>Address Street</t>
-  </si>
-  <si>
-    <t>Address State</t>
-  </si>
-  <si>
-    <t>Address Postal Code</t>
-  </si>
-  <si>
-    <t>Address Country</t>
-  </si>
-  <si>
-    <t>Address City</t>
-  </si>
-  <si>
     <t>estimates</t>
   </si>
   <si>
@@ -13699,6 +13660,118 @@
   </si>
   <si>
     <t>Remander</t>
+  </si>
+  <si>
+    <t>Address City (address_city)</t>
+  </si>
+  <si>
+    <t>Address Country (address_country)</t>
+  </si>
+  <si>
+    <t>Address Postal Code (address_postalcode)</t>
+  </si>
+  <si>
+    <t>Address State (address_state)</t>
+  </si>
+  <si>
+    <t>Address Street (address_street)</t>
+  </si>
+  <si>
+    <t>Branch (branch_c)</t>
+  </si>
+  <si>
+    <t>Channel (channel_c)</t>
+  </si>
+  <si>
+    <t>Date Entered (date_entered)</t>
+  </si>
+  <si>
+    <t>Date Modified (date_modified)</t>
+  </si>
+  <si>
+    <t>Department (department)</t>
+  </si>
+  <si>
+    <t>Employee Status (employee_status)</t>
+  </si>
+  <si>
+    <t>First Name (first_name)</t>
+  </si>
+  <si>
+    <t>ID (id)</t>
+  </si>
+  <si>
+    <t>Is Administrator (is_admin)</t>
+  </si>
+  <si>
+    <t>last login (last_login:date)</t>
+  </si>
+  <si>
+    <t>Full Name (full_name)</t>
+  </si>
+  <si>
+    <t>Last Name (last_name)</t>
+  </si>
+  <si>
+    <t>Mobile (phone_mobile)</t>
+  </si>
+  <si>
+    <t>Reports to ID (reports_to_id)</t>
+  </si>
+  <si>
+    <t>Status (status)</t>
+  </si>
+  <si>
+    <t>Syspro Salesperson Code (syspro_salesperson_code_c)</t>
+  </si>
+  <si>
+    <t>Title (title)</t>
+  </si>
+  <si>
+    <t>User Name (user_name)</t>
+  </si>
+  <si>
+    <t>Work Phone (phone_work)</t>
+  </si>
+  <si>
+    <r>
+      <t>Email Address (email</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0].email_address)</t>
+    </r>
+  </si>
+  <si>
+    <t>Description (description)</t>
+  </si>
+  <si>
+    <t>Tags (tag:varchar(max))`</t>
+  </si>
+  <si>
+    <t>Integration Sync ID (sync_key:varchar(10))</t>
+  </si>
+  <si>
+    <t>Assigned User ID (assigned_user_id:varchar(40))</t>
+  </si>
+  <si>
+    <t>Modified By Name (modified_by_name:varchar(100))</t>
+  </si>
+  <si>
+    <t>Created By Name (created_by_name:varchar(100))</t>
+  </si>
+  <si>
+    <t>Deleted (deleted:boolean)</t>
+  </si>
+  <si>
+    <t>Currency ID (currency_id:int)</t>
   </si>
 </sst>
 </file>
@@ -13708,7 +13781,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13716,13 +13789,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -13737,7 +13830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -13746,6 +13839,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14134,116 +14229,117 @@
   <dimension ref="A1:Z401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="37.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="48.36328125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="47.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="36.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>4535</v>
       </c>
-      <c r="B1" t="s">
-        <v>4534</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4533</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4532</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4531</v>
-      </c>
-      <c r="F1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4530</v>
-      </c>
-      <c r="I1" t="s">
-        <v>331</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="K1" t="s">
-        <v>585</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="O1" t="s">
-        <v>390</v>
-      </c>
-      <c r="P1" t="s">
-        <v>4529</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>4528</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="S1" t="s">
-        <v>4527</v>
-      </c>
-      <c r="T1" t="s">
-        <v>4526</v>
-      </c>
-      <c r="U1" t="s">
-        <v>575</v>
-      </c>
-      <c r="V1" t="s">
-        <v>4525</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="X1" t="s">
-        <v>4524</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>4523</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1146</v>
+      <c r="C1" s="6" t="s">
+        <v>4536</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4537</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4538</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4539</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4540</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4541</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>4542</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>4543</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>4559</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4544</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>4545</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>4549</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>4546</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>4547</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>4548</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>4550</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>4551</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>4552</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>4553</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>4554</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>4555</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>4556</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>4557</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>4558</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
@@ -37797,6 +37893,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37812,12 +37909,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4536</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4537</v>
+        <v>4524</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -37828,7 +37925,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4538</v>
+        <v>4525</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -37839,7 +37936,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4539</v>
+        <v>4526</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -37850,7 +37947,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4540</v>
+        <v>4527</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -37872,7 +37969,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4541</v>
+        <v>4528</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -37883,7 +37980,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4542</v>
+        <v>4529</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -37894,7 +37991,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>4543</v>
+        <v>4530</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -37905,7 +38002,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>4544</v>
+        <v>4531</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -37916,7 +38013,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>4545</v>
+        <v>4532</v>
       </c>
       <c r="B11">
         <f>SUM(B2:B10)</f>
@@ -37927,7 +38024,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>4546</v>
+        <v>4533</v>
       </c>
       <c r="E11">
         <f>B11-C11</f>
@@ -37943,8 +38040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53567C1A-6129-422A-B194-D3EA336E6D33}">
   <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37986,119 +38083,119 @@
     <col min="38" max="38" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>2322</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2318</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2321</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>2320</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>1241</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>2319</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="6" t="s">
         <v>2318</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="6" t="s">
         <v>2317</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="6" t="s">
         <v>2316</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="6" t="s">
         <v>2315</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="6" t="s">
         <v>2314</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>2313</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="6" t="s">
         <v>2312</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>2311</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="6" t="s">
         <v>2310</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>2309</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>2308</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>1545</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="6" t="s">
         <v>1543</v>
       </c>
     </row>
@@ -40279,7 +40376,7 @@
   <dimension ref="A1:GI36"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="N1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40470,578 +40567,578 @@
     <col min="191" max="191" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:191" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:191" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2111</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>1264</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>2110</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>2109</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>2108</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>2107</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>2106</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>2105</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>2104</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>2103</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>2102</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>2101</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="6" t="s">
         <v>2100</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="6" t="s">
         <v>2099</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="6" t="s">
         <v>2098</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="6" t="s">
         <v>2097</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>2096</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>2095</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="6" t="s">
         <v>2094</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="6" t="s">
         <v>2093</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="6" t="s">
         <v>2092</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>2091</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="6" t="s">
         <v>2090</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="6" t="s">
         <v>2089</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="6" t="s">
         <v>2088</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="6" t="s">
         <v>2087</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="6" t="s">
         <v>2086</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="6" t="s">
         <v>2085</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="6" t="s">
         <v>2084</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="6" t="s">
         <v>2083</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>2082</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="6" t="s">
         <v>2081</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="6" t="s">
         <v>2080</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="6" t="s">
         <v>2079</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="6" t="s">
         <v>2078</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="6" t="s">
         <v>2077</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="6" t="s">
         <v>2076</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="6" t="s">
         <v>2075</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="6" t="s">
         <v>2074</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="6" t="s">
         <v>1214</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="6" t="s">
         <v>2073</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="6" t="s">
         <v>2072</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="6" t="s">
         <v>2071</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="6" t="s">
         <v>2070</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="6" t="s">
         <v>2069</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="6" t="s">
         <v>1555</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>2068</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="6" t="s">
         <v>1233</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="6" t="s">
         <v>2067</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="6" t="s">
         <v>2066</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="6" t="s">
         <v>2065</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="6" t="s">
         <v>2064</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="6" t="s">
         <v>2063</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="6" t="s">
         <v>2062</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="6" t="s">
         <v>2061</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>1232</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="6" t="s">
         <v>2060</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="6" t="s">
         <v>2059</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="6" t="s">
         <v>2058</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="6" t="s">
         <v>2057</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="6" t="s">
         <v>2056</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="6" t="s">
         <v>2055</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="6" t="s">
         <v>2054</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="6" t="s">
         <v>2053</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>2052</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CK1" s="6" t="s">
         <v>2051</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CL1" s="6" t="s">
         <v>2050</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="6" t="s">
         <v>2049</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" s="6" t="s">
         <v>2048</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" s="6" t="s">
         <v>2047</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CP1" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>2046</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" s="6" t="s">
         <v>2045</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CS1" s="6" t="s">
         <v>2044</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CT1" s="6" t="s">
         <v>1198</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" s="6" t="s">
         <v>2043</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CV1" s="6" t="s">
         <v>2042</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CW1" s="6" t="s">
         <v>2041</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CX1" s="6" t="s">
         <v>2040</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CY1" s="6" t="s">
         <v>2039</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="CZ1" s="6" t="s">
         <v>2038</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DA1" s="6" t="s">
         <v>2037</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DB1" s="6" t="s">
         <v>2036</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DC1" s="6" t="s">
         <v>2035</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DD1" s="6" t="s">
         <v>2034</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DE1" s="6" t="s">
         <v>2033</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DF1" s="6" t="s">
         <v>2032</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DG1" s="6" t="s">
         <v>2031</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DH1" s="6" t="s">
         <v>2030</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DI1" s="6" t="s">
         <v>2029</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DJ1" s="6" t="s">
         <v>2028</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DK1" s="6" t="s">
         <v>2027</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DL1" s="6" t="s">
         <v>2026</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DM1" s="6" t="s">
         <v>2025</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DN1" s="6" t="s">
         <v>2024</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DO1" s="6" t="s">
         <v>2023</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DP1" s="6" t="s">
         <v>2022</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DQ1" s="6" t="s">
         <v>2021</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DR1" s="6" t="s">
         <v>2020</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DS1" s="6" t="s">
         <v>2019</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DT1" s="6" t="s">
         <v>2018</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DU1" s="6" t="s">
         <v>2017</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DV1" s="6" t="s">
         <v>2016</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DW1" s="6" t="s">
         <v>2015</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DX1" s="6" t="s">
         <v>2014</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DY1" s="6" t="s">
         <v>2013</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="DZ1" s="6" t="s">
         <v>2012</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EA1" s="6" t="s">
         <v>2011</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EB1" s="6" t="s">
         <v>2010</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EC1" s="6" t="s">
         <v>2009</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="ED1" s="6" t="s">
         <v>2008</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EE1" s="6" t="s">
         <v>2007</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EF1" s="6" t="s">
         <v>2006</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EG1" s="6" t="s">
         <v>2005</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EH1" s="6" t="s">
         <v>2004</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EI1" s="6" t="s">
         <v>2003</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EJ1" s="6" t="s">
         <v>2002</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EK1" s="6" t="s">
         <v>2001</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EL1" s="6" t="s">
         <v>2000</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EM1" s="6" t="s">
         <v>1999</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EN1" s="6" t="s">
         <v>1998</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EO1" s="6" t="s">
         <v>1997</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EP1" s="6" t="s">
         <v>1996</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="EQ1" s="6" t="s">
         <v>1995</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ER1" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ES1" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="ET1" s="6" t="s">
         <v>1994</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EU1" s="6" t="s">
         <v>1993</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EV1" s="6" t="s">
         <v>1992</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EW1" s="6" t="s">
         <v>1991</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EX1" s="6" t="s">
         <v>1185</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EY1" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="EZ1" s="6" t="s">
         <v>1183</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FA1" s="6" t="s">
         <v>1990</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FB1" s="6" t="s">
         <v>1989</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FC1" s="6" t="s">
         <v>1178</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FD1" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FE1" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FF1" s="6" t="s">
         <v>1167</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FG1" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FH1" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FI1" s="6" t="s">
         <v>1158</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FJ1" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FK1" s="6" t="s">
         <v>1988</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FL1" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FM1" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FN1" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FO1" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FP1" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FQ1" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FR1" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FS1" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FT1" s="6" t="s">
         <v>1987</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FU1" s="6" t="s">
         <v>1986</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FV1" s="6" t="s">
         <v>1985</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FW1" s="6" t="s">
         <v>1984</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FX1" s="6" t="s">
         <v>1983</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="FY1" s="6" t="s">
         <v>1982</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="FZ1" s="6" t="s">
         <v>1981</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GA1" s="6" t="s">
         <v>1980</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GB1" s="6" t="s">
         <v>1979</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GC1" s="6" t="s">
         <v>1978</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GD1" s="6" t="s">
         <v>1977</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GE1" s="6" t="s">
         <v>1976</v>
       </c>
-      <c r="GF1" t="s">
+      <c r="GF1" s="6" t="s">
         <v>1146</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="GG1" s="6" t="s">
         <v>1145</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="GH1" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="GI1" t="s">
+      <c r="GI1" s="6" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -47399,90 +47496,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3AF5C6-79CC-4E93-8BC8-C3BE5B17FB45}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.26953125" customWidth="1"/>
+    <col min="23" max="23" width="42.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="47" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="H1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="6" t="s">
+        <v>4566</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="O1" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>325</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="O1" s="6" t="s">
+        <v>4565</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>4560</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>4561</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="W1" t="s">
-        <v>319</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="W1" s="6" t="s">
+        <v>4562</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="Y1" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>315</v>
+      <c r="Y1" s="6" t="s">
+        <v>4563</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>4564</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
@@ -49798,512 +49911,520 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C377357E-FE29-43F5-9314-B4B3DCD289F6}">
   <dimension ref="A1:FK36"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="CR1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CR1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="17" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="35.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:167" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:167" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>1275</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1274</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1273</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>1272</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>1271</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>1270</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>1268</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>1265</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>1264</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>1263</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>1262</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>1261</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="6" t="s">
         <v>1260</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="6" t="s">
         <v>1259</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="6" t="s">
         <v>1258</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="6" t="s">
         <v>1257</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="6" t="s">
         <v>1253</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="6" t="s">
         <v>1252</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>1019</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="6" t="s">
         <v>1251</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="6" t="s">
         <v>1250</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="6" t="s">
         <v>1249</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="6" t="s">
         <v>1248</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>1247</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="6" t="s">
         <v>1246</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="6" t="s">
         <v>1245</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="6" t="s">
         <v>1244</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="6" t="s">
         <v>1243</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="6" t="s">
         <v>1242</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="6" t="s">
         <v>1241</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="6" t="s">
         <v>1240</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="6" t="s">
         <v>1239</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="6" t="s">
         <v>1237</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="6" t="s">
         <v>1236</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="6" t="s">
         <v>1235</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>1234</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="6" t="s">
         <v>1233</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="6" t="s">
         <v>1232</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="6" t="s">
         <v>1231</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="6" t="s">
         <v>1230</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="6" t="s">
         <v>1229</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="6" t="s">
         <v>1226</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="6" t="s">
         <v>1225</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="6" t="s">
         <v>1224</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="6" t="s">
         <v>1223</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="6" t="s">
         <v>1222</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="6" t="s">
         <v>1221</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="6" t="s">
         <v>1220</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>1219</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="6" t="s">
         <v>1218</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="6" t="s">
         <v>1217</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="6" t="s">
         <v>1216</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="6" t="s">
         <v>1215</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="6" t="s">
         <v>1214</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="6" t="s">
         <v>1213</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="6" t="s">
         <v>1212</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="6" t="s">
         <v>1211</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="6" t="s">
         <v>1210</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CK1" s="6" t="s">
         <v>1208</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CL1" s="6" t="s">
         <v>1207</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="6" t="s">
         <v>1206</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" s="6" t="s">
         <v>1205</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" s="6" t="s">
         <v>1204</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CP1" s="6" t="s">
         <v>1203</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>1202</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" s="6" t="s">
         <v>1201</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CS1" s="6" t="s">
         <v>1200</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CT1" s="6" t="s">
         <v>1199</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" s="6" t="s">
         <v>1198</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CV1" s="6" t="s">
         <v>1197</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CW1" s="6" t="s">
         <v>1196</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CX1" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CY1" s="6" t="s">
         <v>1195</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="CZ1" s="6" t="s">
         <v>1194</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DA1" s="6" t="s">
         <v>1193</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DB1" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DC1" s="6" t="s">
         <v>1191</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DD1" s="6" t="s">
         <v>1190</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DE1" s="6" t="s">
         <v>1189</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DF1" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DG1" s="6" t="s">
         <v>1187</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DH1" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DI1" s="6" t="s">
         <v>1186</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DJ1" s="6" t="s">
         <v>1185</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DK1" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DL1" s="6" t="s">
         <v>1183</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DM1" s="6" t="s">
         <v>1182</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DN1" s="6" t="s">
         <v>1181</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DO1" s="6" t="s">
         <v>1180</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DP1" s="6" t="s">
         <v>1179</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DQ1" s="6" t="s">
         <v>1178</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DR1" s="6" t="s">
         <v>1177</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DS1" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DT1" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DU1" s="6" t="s">
         <v>1176</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DV1" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DW1" s="6" t="s">
         <v>1175</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DX1" s="6" t="s">
         <v>1174</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DY1" s="6" t="s">
         <v>1173</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="DZ1" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EA1" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EB1" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EC1" s="6" t="s">
         <v>1172</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="ED1" s="6" t="s">
         <v>1171</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EE1" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EF1" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EG1" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EH1" s="6" t="s">
         <v>1167</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EI1" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EJ1" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EK1" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EL1" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EM1" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EN1" s="6" t="s">
         <v>1161</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EO1" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EP1" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="EQ1" s="6" t="s">
         <v>1158</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ER1" s="6" t="s">
         <v>1157</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ES1" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="ET1" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EU1" s="6" t="s">
         <v>1154</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EV1" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EW1" s="6" t="s">
         <v>1152</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EX1" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EY1" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="EZ1" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FA1" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FB1" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FC1" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FD1" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FE1" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FF1" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FG1" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FH1" s="6" t="s">
         <v>1146</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FI1" s="6" t="s">
         <v>1145</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FJ1" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FK1" s="6" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -55944,8 +56065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1AF0B0-B43D-4A8C-A47E-DCD3D5893A6F}">
   <dimension ref="A1:BN36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
